--- a/TableTennis/rubbers.xlsx
+++ b/TableTennis/rubbers.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="6555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="6555" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Xiom - South Korea" sheetId="1" r:id="rId1"/>
+    <sheet name="Nittaku - Japan" sheetId="4" r:id="rId2"/>
+    <sheet name="LKT - China" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,33 +26,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+  <si>
+    <t>Rubber Name</t>
+  </si>
+  <si>
+    <t>Pimples</t>
+  </si>
   <si>
     <t>inv</t>
   </si>
   <si>
-    <t>Blade Name</t>
-  </si>
-  <si>
-    <t>Composite</t>
-  </si>
-  <si>
-    <t>Sigma 1 Euro</t>
-  </si>
-  <si>
-    <t>Omega 7 Pro</t>
-  </si>
-  <si>
-    <t>Omega 7 Asia</t>
-  </si>
-  <si>
-    <t>Omega 7 Euro</t>
-  </si>
-  <si>
-    <t>Omega 5 Pro</t>
-  </si>
-  <si>
-    <t>Omega 5 Euro</t>
+    <t>Sigma 2 Pro</t>
+  </si>
+  <si>
+    <t>Vega Pro</t>
+  </si>
+  <si>
+    <t>Vega X</t>
+  </si>
+  <si>
+    <t>Vega Asia</t>
+  </si>
+  <si>
+    <t>Fastarc G-1</t>
+  </si>
+  <si>
+    <t>Fastarc P-1</t>
+  </si>
+  <si>
+    <t>Red Diamond</t>
+  </si>
+  <si>
+    <t>Rapid Sound</t>
   </si>
 </sst>
 </file>
@@ -368,20 +376,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -389,7 +397,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -397,7 +405,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -405,7 +413,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -413,23 +421,85 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
